--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel40/field_36ha_100ha_10%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -2227,28 +2227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>619.2336260516622</v>
+        <v>795.3586780803709</v>
       </c>
       <c r="AB2" t="n">
-        <v>847.2627658234121</v>
+        <v>1088.244832098001</v>
       </c>
       <c r="AC2" t="n">
-        <v>766.4011965939852</v>
+        <v>984.3842726837819</v>
       </c>
       <c r="AD2" t="n">
-        <v>619233.6260516623</v>
+        <v>795358.6780803709</v>
       </c>
       <c r="AE2" t="n">
-        <v>847262.7658234121</v>
+        <v>1088244.832098001</v>
       </c>
       <c r="AF2" t="n">
         <v>4.638011366987315e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>34</v>
+        <v>33.84259259259259</v>
       </c>
       <c r="AH2" t="n">
-        <v>766401.1965939852</v>
+        <v>984384.2726837819</v>
       </c>
     </row>
     <row r="3">
@@ -2333,28 +2333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>407.3111055393282</v>
+        <v>524.7060409758039</v>
       </c>
       <c r="AB3" t="n">
-        <v>557.3010238966768</v>
+        <v>717.9259536598919</v>
       </c>
       <c r="AC3" t="n">
-        <v>504.1129963528768</v>
+        <v>649.4081082579953</v>
       </c>
       <c r="AD3" t="n">
-        <v>407311.1055393282</v>
+        <v>524706.040975804</v>
       </c>
       <c r="AE3" t="n">
-        <v>557301.0238966768</v>
+        <v>717925.9536598918</v>
       </c>
       <c r="AF3" t="n">
         <v>6.441983801787392e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.36342592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>504112.9963528768</v>
+        <v>649408.1082579953</v>
       </c>
     </row>
     <row r="4">
@@ -2439,28 +2439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>347.769037424626</v>
+        <v>465.1629618312446</v>
       </c>
       <c r="AB4" t="n">
-        <v>475.8329394914871</v>
+        <v>636.4564859190481</v>
       </c>
       <c r="AC4" t="n">
-        <v>430.4201115821438</v>
+        <v>575.7139721752217</v>
       </c>
       <c r="AD4" t="n">
-        <v>347769.0374246261</v>
+        <v>465162.9618312446</v>
       </c>
       <c r="AE4" t="n">
-        <v>475832.9394914871</v>
+        <v>636456.4859190481</v>
       </c>
       <c r="AF4" t="n">
         <v>7.142255443770975e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.97916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>430420.1115821438</v>
+        <v>575713.9721752217</v>
       </c>
     </row>
     <row r="5">
@@ -2545,28 +2545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>321.980220828256</v>
+        <v>429.6197893833071</v>
       </c>
       <c r="AB5" t="n">
-        <v>440.5475429020419</v>
+        <v>587.8247493216793</v>
       </c>
       <c r="AC5" t="n">
-        <v>398.5023037198301</v>
+        <v>531.7235802636346</v>
       </c>
       <c r="AD5" t="n">
-        <v>321980.220828256</v>
+        <v>429619.7893833071</v>
       </c>
       <c r="AE5" t="n">
-        <v>440547.5429020419</v>
+        <v>587824.7493216792</v>
       </c>
       <c r="AF5" t="n">
         <v>7.509477675856866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.90277777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>398502.3037198301</v>
+        <v>531723.5802636347</v>
       </c>
     </row>
     <row r="6">
@@ -2651,28 +2651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>319.922448138635</v>
+        <v>427.5620166936861</v>
       </c>
       <c r="AB6" t="n">
-        <v>437.7320075255785</v>
+        <v>585.0092139452158</v>
       </c>
       <c r="AC6" t="n">
-        <v>395.9554790880676</v>
+        <v>529.1767556318722</v>
       </c>
       <c r="AD6" t="n">
-        <v>319922.448138635</v>
+        <v>427562.0166936861</v>
       </c>
       <c r="AE6" t="n">
-        <v>437732.0075255785</v>
+        <v>585009.2139452158</v>
       </c>
       <c r="AF6" t="n">
         <v>7.561957367074458e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.75231481481481</v>
       </c>
       <c r="AH6" t="n">
-        <v>395955.4790880677</v>
+        <v>529176.7556318722</v>
       </c>
     </row>
   </sheetData>
@@ -2948,28 +2948,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>499.4948321319876</v>
+        <v>644.7030693836093</v>
       </c>
       <c r="AB2" t="n">
-        <v>683.4308654797461</v>
+        <v>882.1111818227201</v>
       </c>
       <c r="AC2" t="n">
-        <v>618.2051828796025</v>
+        <v>797.9237286803783</v>
       </c>
       <c r="AD2" t="n">
-        <v>499494.8321319876</v>
+        <v>644703.0693836093</v>
       </c>
       <c r="AE2" t="n">
-        <v>683430.8654797461</v>
+        <v>882111.1818227201</v>
       </c>
       <c r="AF2" t="n">
         <v>5.806047079576074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.58333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>618205.1828796025</v>
+        <v>797923.7286803783</v>
       </c>
     </row>
     <row r="3">
@@ -3054,28 +3054,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>350.2316818741204</v>
+        <v>466.3641062566369</v>
       </c>
       <c r="AB3" t="n">
-        <v>479.2024382714906</v>
+        <v>638.099944712622</v>
       </c>
       <c r="AC3" t="n">
-        <v>433.468030127705</v>
+        <v>577.2005815681458</v>
       </c>
       <c r="AD3" t="n">
-        <v>350231.6818741204</v>
+        <v>466364.1062566369</v>
       </c>
       <c r="AE3" t="n">
-        <v>479202.4382714906</v>
+        <v>638099.944712622</v>
       </c>
       <c r="AF3" t="n">
         <v>7.593413374505116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.61574074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>433468.030127705</v>
+        <v>577200.5815681458</v>
       </c>
     </row>
     <row r="4">
@@ -3160,28 +3160,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>308.2520384481884</v>
+        <v>414.7039136805969</v>
       </c>
       <c r="AB4" t="n">
-        <v>421.7640381249711</v>
+        <v>567.4161901432375</v>
       </c>
       <c r="AC4" t="n">
-        <v>381.5114702758684</v>
+        <v>513.2627853295907</v>
       </c>
       <c r="AD4" t="n">
-        <v>308252.0384481885</v>
+        <v>414703.9136805969</v>
       </c>
       <c r="AE4" t="n">
-        <v>421764.0381249711</v>
+        <v>567416.1901432375</v>
       </c>
       <c r="AF4" t="n">
         <v>8.226395660257008e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.87962962962963</v>
       </c>
       <c r="AH4" t="n">
-        <v>381511.4702758684</v>
+        <v>513262.7853295907</v>
       </c>
     </row>
     <row r="5">
@@ -3266,28 +3266,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>307.4310361338714</v>
+        <v>413.8829113662798</v>
       </c>
       <c r="AB5" t="n">
-        <v>420.6407065384566</v>
+        <v>566.2928585567231</v>
       </c>
       <c r="AC5" t="n">
-        <v>380.4953478793651</v>
+        <v>512.2466629330874</v>
       </c>
       <c r="AD5" t="n">
-        <v>307431.0361338714</v>
+        <v>413882.9113662798</v>
       </c>
       <c r="AE5" t="n">
-        <v>420640.7065384566</v>
+        <v>566292.8585567231</v>
       </c>
       <c r="AF5" t="n">
         <v>8.270760804054432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>380495.3478793651</v>
+        <v>512246.6629330874</v>
       </c>
     </row>
   </sheetData>
@@ -3563,28 +3563,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>298.941840330401</v>
+        <v>401.7848196596883</v>
       </c>
       <c r="AB2" t="n">
-        <v>409.0254143232617</v>
+        <v>549.7397157536274</v>
       </c>
       <c r="AC2" t="n">
-        <v>369.9886028510234</v>
+        <v>497.2733288466373</v>
       </c>
       <c r="AD2" t="n">
-        <v>298941.840330401</v>
+        <v>401784.8196596883</v>
       </c>
       <c r="AE2" t="n">
-        <v>409025.4143232617</v>
+        <v>549739.7157536274</v>
       </c>
       <c r="AF2" t="n">
         <v>1.085805313689721e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.07175925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>369988.6028510234</v>
+        <v>497273.3288466373</v>
       </c>
     </row>
     <row r="3">
@@ -3669,28 +3669,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.9807214961195</v>
+        <v>401.8237008254068</v>
       </c>
       <c r="AB3" t="n">
-        <v>409.0786132495138</v>
+        <v>549.7929146798793</v>
       </c>
       <c r="AC3" t="n">
-        <v>370.0367245464191</v>
+        <v>497.3214505420329</v>
       </c>
       <c r="AD3" t="n">
-        <v>298980.7214961195</v>
+        <v>401823.7008254068</v>
       </c>
       <c r="AE3" t="n">
-        <v>409078.6132495138</v>
+        <v>549792.9146798793</v>
       </c>
       <c r="AF3" t="n">
         <v>1.088166300295364e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.02546296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>370036.7245464191</v>
+        <v>497321.450542033</v>
       </c>
     </row>
   </sheetData>
@@ -3966,28 +3966,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.5899065231468</v>
+        <v>469.313428257189</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.5337976244767</v>
+        <v>642.1353371886809</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.0996948336696</v>
+        <v>580.8508418499986</v>
       </c>
       <c r="AD2" t="n">
-        <v>355589.9065231468</v>
+        <v>469313.428257189</v>
       </c>
       <c r="AE2" t="n">
-        <v>486533.7976244767</v>
+        <v>642135.3371886809</v>
       </c>
       <c r="AF2" t="n">
         <v>8.619476825630887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.08564814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>440099.6948336696</v>
+        <v>580850.8418499986</v>
       </c>
     </row>
     <row r="3">
@@ -4072,28 +4072,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>298.4509473801255</v>
+        <v>402.657733566908</v>
       </c>
       <c r="AB3" t="n">
-        <v>408.3537529320262</v>
+        <v>550.9340750717289</v>
       </c>
       <c r="AC3" t="n">
-        <v>369.3810438802848</v>
+        <v>498.3537001877131</v>
       </c>
       <c r="AD3" t="n">
-        <v>298450.9473801255</v>
+        <v>402657.733566908</v>
       </c>
       <c r="AE3" t="n">
-        <v>408353.7529320262</v>
+        <v>550934.0750717289</v>
       </c>
       <c r="AF3" t="n">
         <v>9.772172003606493e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.23842592592593</v>
       </c>
       <c r="AH3" t="n">
-        <v>369381.0438802848</v>
+        <v>498353.7001877131</v>
       </c>
     </row>
   </sheetData>
@@ -4369,28 +4369,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>301.6372418889402</v>
+        <v>412.5506749565811</v>
       </c>
       <c r="AB2" t="n">
-        <v>412.7133816483794</v>
+        <v>564.4700339268509</v>
       </c>
       <c r="AC2" t="n">
-        <v>373.3245957507265</v>
+        <v>510.5978061275399</v>
       </c>
       <c r="AD2" t="n">
-        <v>301637.2418889402</v>
+        <v>412550.6749565811</v>
       </c>
       <c r="AE2" t="n">
-        <v>412713.3816483794</v>
+        <v>564470.0339268509</v>
       </c>
       <c r="AF2" t="n">
         <v>1.184979972239852e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.17129629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>373324.5957507265</v>
+        <v>510597.8061275398</v>
       </c>
     </row>
   </sheetData>
@@ -4666,28 +4666,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>528.3151794976503</v>
+        <v>683.623873260098</v>
       </c>
       <c r="AB2" t="n">
-        <v>722.8641362094362</v>
+        <v>935.3643427512143</v>
       </c>
       <c r="AC2" t="n">
-        <v>653.8749975957941</v>
+        <v>846.0944826711379</v>
       </c>
       <c r="AD2" t="n">
-        <v>528315.1794976504</v>
+        <v>683623.8732600979</v>
       </c>
       <c r="AE2" t="n">
-        <v>722864.1362094362</v>
+        <v>935364.3427512143</v>
       </c>
       <c r="AF2" t="n">
         <v>5.471619050989066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>653874.997595794</v>
+        <v>846094.4826711379</v>
       </c>
     </row>
     <row r="3">
@@ -4772,28 +4772,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>368.9431525925647</v>
+        <v>475.7082138907355</v>
       </c>
       <c r="AB3" t="n">
-        <v>504.804298000294</v>
+        <v>650.8849650105305</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.6264842964272</v>
+        <v>588.7654174727106</v>
       </c>
       <c r="AD3" t="n">
-        <v>368943.1525925647</v>
+        <v>475708.2138907355</v>
       </c>
       <c r="AE3" t="n">
-        <v>504804.298000294</v>
+        <v>650884.9650105305</v>
       </c>
       <c r="AF3" t="n">
         <v>7.279226879525081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.02083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>456626.4842964272</v>
+        <v>588765.4174727106</v>
       </c>
     </row>
     <row r="4">
@@ -4878,28 +4878,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>324.4838550280852</v>
+        <v>421.5399876274293</v>
       </c>
       <c r="AB4" t="n">
-        <v>443.9731256667937</v>
+        <v>576.7696081035911</v>
       </c>
       <c r="AC4" t="n">
-        <v>401.6009536733495</v>
+        <v>521.7235262074126</v>
       </c>
       <c r="AD4" t="n">
-        <v>324483.8550280852</v>
+        <v>421539.9876274293</v>
       </c>
       <c r="AE4" t="n">
-        <v>443973.1256667937</v>
+        <v>576769.608103591</v>
       </c>
       <c r="AF4" t="n">
         <v>7.962943970709563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.04166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>401600.9536733495</v>
+        <v>521723.5262074127</v>
       </c>
     </row>
     <row r="5">
@@ -4984,28 +4984,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>310.2897380619377</v>
+        <v>417.0537883302513</v>
       </c>
       <c r="AB5" t="n">
-        <v>424.5521086334651</v>
+        <v>570.6313923080475</v>
       </c>
       <c r="AC5" t="n">
-        <v>384.0334512481133</v>
+        <v>516.171133112356</v>
       </c>
       <c r="AD5" t="n">
-        <v>310289.7380619377</v>
+        <v>417053.7883302514</v>
       </c>
       <c r="AE5" t="n">
-        <v>424552.1086334651</v>
+        <v>570631.3923080475</v>
       </c>
       <c r="AF5" t="n">
         <v>8.073566558101544e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.75231481481481</v>
       </c>
       <c r="AH5" t="n">
-        <v>384033.4512481133</v>
+        <v>516171.133112356</v>
       </c>
     </row>
   </sheetData>
@@ -5281,28 +5281,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>307.8558507777124</v>
+        <v>418.0627513275499</v>
       </c>
       <c r="AB2" t="n">
-        <v>421.2219566756592</v>
+        <v>572.0118999932573</v>
       </c>
       <c r="AC2" t="n">
-        <v>381.0211243192627</v>
+        <v>517.419887081644</v>
       </c>
       <c r="AD2" t="n">
-        <v>307855.8507777124</v>
+        <v>418062.7513275499</v>
       </c>
       <c r="AE2" t="n">
-        <v>421221.9566756592</v>
+        <v>572011.8999932574</v>
       </c>
       <c r="AF2" t="n">
         <v>1.243378320011869e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.1550925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>381021.1243192627</v>
+        <v>517419.887081644</v>
       </c>
     </row>
   </sheetData>
@@ -5578,28 +5578,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>420.1657815561441</v>
+        <v>554.369829107666</v>
       </c>
       <c r="AB2" t="n">
-        <v>574.8893587311655</v>
+        <v>758.5132572558762</v>
       </c>
       <c r="AC2" t="n">
-        <v>520.0227251961448</v>
+        <v>686.1218165634173</v>
       </c>
       <c r="AD2" t="n">
-        <v>420165.7815561441</v>
+        <v>554369.8291076659</v>
       </c>
       <c r="AE2" t="n">
-        <v>574889.3587311655</v>
+        <v>758513.2572558762</v>
       </c>
       <c r="AF2" t="n">
         <v>6.978164873474041e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.75925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>520022.7251961449</v>
+        <v>686121.8165634173</v>
       </c>
     </row>
     <row r="3">
@@ -5684,28 +5684,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>312.6968317808348</v>
+        <v>418.0682281738731</v>
       </c>
       <c r="AB3" t="n">
-        <v>427.8456004531403</v>
+        <v>572.0193936560183</v>
       </c>
       <c r="AC3" t="n">
-        <v>387.0126168309635</v>
+        <v>517.4266655597484</v>
       </c>
       <c r="AD3" t="n">
-        <v>312696.8317808348</v>
+        <v>418068.2281738732</v>
       </c>
       <c r="AE3" t="n">
-        <v>427845.6004531403</v>
+        <v>572019.3936560183</v>
       </c>
       <c r="AF3" t="n">
         <v>8.757273427260042e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.31944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>387012.6168309635</v>
+        <v>517426.6655597484</v>
       </c>
     </row>
     <row r="4">
@@ -5790,28 +5790,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>298.4663994158312</v>
+        <v>403.905115616574</v>
       </c>
       <c r="AB4" t="n">
-        <v>408.3748950889745</v>
+        <v>552.6407982226941</v>
       </c>
       <c r="AC4" t="n">
-        <v>369.4001682594471</v>
+        <v>499.8975360765511</v>
       </c>
       <c r="AD4" t="n">
-        <v>298466.3994158313</v>
+        <v>403905.115616574</v>
       </c>
       <c r="AE4" t="n">
-        <v>408374.8950889745</v>
+        <v>552640.7982226941</v>
       </c>
       <c r="AF4" t="n">
         <v>8.925713558769299e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.92592592592592</v>
       </c>
       <c r="AH4" t="n">
-        <v>369400.1682594471</v>
+        <v>499897.5360765511</v>
       </c>
     </row>
   </sheetData>
@@ -6087,28 +6087,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>471.3191898304562</v>
+        <v>616.0513809131245</v>
       </c>
       <c r="AB2" t="n">
-        <v>644.8797086611804</v>
+        <v>842.9086776341177</v>
       </c>
       <c r="AC2" t="n">
-        <v>583.3332943609123</v>
+        <v>762.462656470476</v>
       </c>
       <c r="AD2" t="n">
-        <v>471319.1898304562</v>
+        <v>616051.3809131245</v>
       </c>
       <c r="AE2" t="n">
-        <v>644879.7086611805</v>
+        <v>842908.6776341177</v>
       </c>
       <c r="AF2" t="n">
         <v>6.175128984778749e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.54166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>583333.2943609123</v>
+        <v>762462.656470476</v>
       </c>
     </row>
     <row r="3">
@@ -6193,28 +6193,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.7631077576631</v>
+        <v>446.8577827176881</v>
       </c>
       <c r="AB3" t="n">
-        <v>466.2471174413454</v>
+        <v>611.4105322883729</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.7491469346818</v>
+        <v>553.0583692068413</v>
       </c>
       <c r="AD3" t="n">
-        <v>340763.1077576631</v>
+        <v>446857.7827176881</v>
       </c>
       <c r="AE3" t="n">
-        <v>466247.1174413454</v>
+        <v>611410.5322883729</v>
       </c>
       <c r="AF3" t="n">
         <v>7.957857106901172e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.15277777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>421749.1469346818</v>
+        <v>553058.3692068413</v>
       </c>
     </row>
     <row r="4">
@@ -6299,28 +6299,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>304.5632575957637</v>
+        <v>410.6910869447123</v>
       </c>
       <c r="AB4" t="n">
-        <v>416.7168854251577</v>
+        <v>561.9256635697789</v>
       </c>
       <c r="AC4" t="n">
-        <v>376.9460107460019</v>
+        <v>508.2962669063007</v>
       </c>
       <c r="AD4" t="n">
-        <v>304563.2575957637</v>
+        <v>410691.0869447123</v>
       </c>
       <c r="AE4" t="n">
-        <v>416716.8854251577</v>
+        <v>561925.6635697789</v>
       </c>
       <c r="AF4" t="n">
         <v>8.458744924572508e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.83333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>376946.0107460019</v>
+        <v>508296.2669063007</v>
       </c>
     </row>
     <row r="5">
@@ -6405,28 +6405,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>305.0091386922018</v>
+        <v>411.1369680411505</v>
       </c>
       <c r="AB5" t="n">
-        <v>417.3269596121901</v>
+        <v>562.5357377568113</v>
       </c>
       <c r="AC5" t="n">
-        <v>377.4978603088684</v>
+        <v>508.8481164691672</v>
       </c>
       <c r="AD5" t="n">
-        <v>305009.1386922018</v>
+        <v>411136.9680411505</v>
       </c>
       <c r="AE5" t="n">
-        <v>417326.9596121901</v>
+        <v>562535.7377568113</v>
       </c>
       <c r="AF5" t="n">
         <v>8.456003671693795e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.84490740740741</v>
       </c>
       <c r="AH5" t="n">
-        <v>377497.8603088685</v>
+        <v>508848.1164691672</v>
       </c>
     </row>
   </sheetData>
@@ -6702,28 +6702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>587.1235659168134</v>
+        <v>753.0575951031431</v>
       </c>
       <c r="AB2" t="n">
-        <v>803.3283649510373</v>
+        <v>1030.366624176486</v>
       </c>
       <c r="AC2" t="n">
-        <v>726.6598332785511</v>
+        <v>932.0298796937216</v>
       </c>
       <c r="AD2" t="n">
-        <v>587123.5659168134</v>
+        <v>753057.595103143</v>
       </c>
       <c r="AE2" t="n">
-        <v>803328.3649510373</v>
+        <v>1030366.624176486</v>
       </c>
       <c r="AF2" t="n">
         <v>4.901101410964383e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.69675925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>726659.8332785511</v>
+        <v>932029.8796937215</v>
       </c>
     </row>
     <row r="3">
@@ -6808,28 +6808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>388.0180493686202</v>
+        <v>514.8665732290841</v>
       </c>
       <c r="AB3" t="n">
-        <v>530.9034132943469</v>
+        <v>704.4631598021489</v>
       </c>
       <c r="AC3" t="n">
-        <v>480.2347366571541</v>
+        <v>637.2301845508857</v>
       </c>
       <c r="AD3" t="n">
-        <v>388018.0493686202</v>
+        <v>514866.5732290841</v>
       </c>
       <c r="AE3" t="n">
-        <v>530903.4132943469</v>
+        <v>704463.1598021489</v>
       </c>
       <c r="AF3" t="n">
         <v>6.696132225454077e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.92361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>480234.7366571542</v>
+        <v>637230.1845508857</v>
       </c>
     </row>
     <row r="4">
@@ -6914,28 +6914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>339.9509226427757</v>
+        <v>447.3421073872588</v>
       </c>
       <c r="AB4" t="n">
-        <v>465.1358499360779</v>
+        <v>612.0732066681759</v>
       </c>
       <c r="AC4" t="n">
-        <v>420.7439372404434</v>
+        <v>553.6577988739053</v>
       </c>
       <c r="AD4" t="n">
-        <v>339950.9226427757</v>
+        <v>447342.1073872588</v>
       </c>
       <c r="AE4" t="n">
-        <v>465135.8499360779</v>
+        <v>612073.2066681759</v>
       </c>
       <c r="AF4" t="n">
         <v>7.399829713503678e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.6550925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>420743.9372404434</v>
+        <v>553657.7988739053</v>
       </c>
     </row>
     <row r="5">
@@ -7020,28 +7020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>316.8798197205751</v>
+        <v>424.2368390462775</v>
       </c>
       <c r="AB5" t="n">
-        <v>433.5689490926966</v>
+        <v>580.4595591915469</v>
       </c>
       <c r="AC5" t="n">
-        <v>392.1897371091309</v>
+        <v>525.0613135424129</v>
       </c>
       <c r="AD5" t="n">
-        <v>316879.8197205751</v>
+        <v>424236.8390462775</v>
       </c>
       <c r="AE5" t="n">
-        <v>433568.9490926967</v>
+        <v>580459.5591915469</v>
       </c>
       <c r="AF5" t="n">
         <v>7.704816053494486e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.79861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>392189.7371091309</v>
+        <v>525061.3135424129</v>
       </c>
     </row>
     <row r="6">
@@ -7126,28 +7126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>316.6525256498579</v>
+        <v>424.0095449755603</v>
       </c>
       <c r="AB6" t="n">
-        <v>433.2579553176348</v>
+        <v>580.1485654164851</v>
       </c>
       <c r="AC6" t="n">
-        <v>391.9084241434784</v>
+        <v>524.7800005767604</v>
       </c>
       <c r="AD6" t="n">
-        <v>316652.5256498579</v>
+        <v>424009.5449755603</v>
       </c>
       <c r="AE6" t="n">
-        <v>433257.9553176347</v>
+        <v>580148.5654164851</v>
       </c>
       <c r="AF6" t="n">
         <v>7.734027182744626e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.71759259259259</v>
       </c>
       <c r="AH6" t="n">
-        <v>391908.4241434784</v>
+        <v>524780.0005767604</v>
       </c>
     </row>
   </sheetData>
@@ -7423,28 +7423,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>380.5164287586913</v>
+        <v>494.7201782402404</v>
       </c>
       <c r="AB2" t="n">
-        <v>520.6393650276981</v>
+        <v>676.8979733821943</v>
       </c>
       <c r="AC2" t="n">
-        <v>470.950274751392</v>
+        <v>612.2957808348693</v>
       </c>
       <c r="AD2" t="n">
-        <v>380516.4287586913</v>
+        <v>494720.1782402404</v>
       </c>
       <c r="AE2" t="n">
-        <v>520639.3650276981</v>
+        <v>676897.9733821943</v>
       </c>
       <c r="AF2" t="n">
         <v>7.984076837458598e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.02314814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>470950.274751392</v>
+        <v>612295.7808348694</v>
       </c>
     </row>
     <row r="3">
@@ -7529,28 +7529,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>301.9483826921225</v>
+        <v>406.564059346904</v>
       </c>
       <c r="AB3" t="n">
-        <v>413.1390982218568</v>
+        <v>556.2788823388499</v>
       </c>
       <c r="AC3" t="n">
-        <v>373.7096825319282</v>
+        <v>503.1884065507442</v>
       </c>
       <c r="AD3" t="n">
-        <v>301948.3826921225</v>
+        <v>406564.059346904</v>
       </c>
       <c r="AE3" t="n">
-        <v>413139.0982218568</v>
+        <v>556278.8823388499</v>
       </c>
       <c r="AF3" t="n">
         <v>9.442960162657741e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.15740740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>373709.6825319282</v>
+        <v>503188.4065507442</v>
       </c>
     </row>
     <row r="4">
@@ -7635,28 +7635,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.828579262307</v>
+        <v>396.992844765444</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.975177883829</v>
+        <v>543.1831242963101</v>
       </c>
       <c r="AC4" t="n">
-        <v>373.561406520898</v>
+        <v>491.3424892757726</v>
       </c>
       <c r="AD4" t="n">
-        <v>301828.579262307</v>
+        <v>396992.8447654441</v>
       </c>
       <c r="AE4" t="n">
-        <v>412975.177883829</v>
+        <v>543183.1242963101</v>
       </c>
       <c r="AF4" t="n">
         <v>9.475751814353924e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.07638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>373561.406520898</v>
+        <v>491342.4892757726</v>
       </c>
     </row>
   </sheetData>
@@ -7932,28 +7932,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>309.345157327752</v>
+        <v>422.122192332733</v>
       </c>
       <c r="AB2" t="n">
-        <v>423.2596916009913</v>
+        <v>577.5662062664466</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.8643806833001</v>
+        <v>522.4440981596377</v>
       </c>
       <c r="AD2" t="n">
-        <v>309345.157327752</v>
+        <v>422122.192332733</v>
       </c>
       <c r="AE2" t="n">
-        <v>423259.6916009914</v>
+        <v>577566.2062664465</v>
       </c>
       <c r="AF2" t="n">
         <v>1.00896933885562e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.51157407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>382864.3806833001</v>
+        <v>522444.0981596378</v>
       </c>
     </row>
     <row r="3">
@@ -8038,28 +8038,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>292.1637423382919</v>
+        <v>395.5740093934068</v>
       </c>
       <c r="AB3" t="n">
-        <v>399.7513216218789</v>
+        <v>541.2418111456899</v>
       </c>
       <c r="AC3" t="n">
-        <v>361.5996165407897</v>
+        <v>489.5864523275974</v>
       </c>
       <c r="AD3" t="n">
-        <v>292163.7423382918</v>
+        <v>395574.0093934068</v>
       </c>
       <c r="AE3" t="n">
-        <v>399751.3216218789</v>
+        <v>541241.8111456899</v>
       </c>
       <c r="AF3" t="n">
         <v>1.049356371558091e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.64351851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>361599.6165407897</v>
+        <v>489586.4523275974</v>
       </c>
     </row>
   </sheetData>
@@ -13748,28 +13748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>295.1869467357076</v>
+        <v>406.7229051022692</v>
       </c>
       <c r="AB2" t="n">
-        <v>403.8878032527882</v>
+        <v>556.4962221091208</v>
       </c>
       <c r="AC2" t="n">
-        <v>365.3413181704333</v>
+        <v>503.3850037183788</v>
       </c>
       <c r="AD2" t="n">
-        <v>295186.9467357076</v>
+        <v>406722.9051022693</v>
       </c>
       <c r="AE2" t="n">
-        <v>403887.8032527881</v>
+        <v>556496.2221091208</v>
       </c>
       <c r="AF2" t="n">
         <v>1.135231452598448e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.46527777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>365341.3181704333</v>
+        <v>503385.0037183788</v>
       </c>
     </row>
     <row r="3">
@@ -13854,28 +13854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.9619959360833</v>
+        <v>407.4979543026449</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.9482597614996</v>
+        <v>557.5566786178325</v>
       </c>
       <c r="AC3" t="n">
-        <v>366.3005661983135</v>
+        <v>504.3442517462589</v>
       </c>
       <c r="AD3" t="n">
-        <v>295961.9959360833</v>
+        <v>407497.9543026449</v>
       </c>
       <c r="AE3" t="n">
-        <v>404948.2597614996</v>
+        <v>557556.6786178325</v>
       </c>
       <c r="AF3" t="n">
         <v>1.134570281105962e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.47685185185185</v>
       </c>
       <c r="AH3" t="n">
-        <v>366300.5661983135</v>
+        <v>504344.2517462589</v>
       </c>
     </row>
   </sheetData>
@@ -14151,28 +14151,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>324.4355784592457</v>
+        <v>442.8985595299977</v>
       </c>
       <c r="AB2" t="n">
-        <v>443.9070715354957</v>
+        <v>605.9933484543753</v>
       </c>
       <c r="AC2" t="n">
-        <v>401.5412036556351</v>
+        <v>548.1581937948952</v>
       </c>
       <c r="AD2" t="n">
-        <v>324435.5784592457</v>
+        <v>442898.5595299976</v>
       </c>
       <c r="AE2" t="n">
-        <v>443907.0715354957</v>
+        <v>605993.3484543753</v>
       </c>
       <c r="AF2" t="n">
         <v>1.294813046847993e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.05324074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>401541.2036556351</v>
+        <v>548158.1937948952</v>
       </c>
     </row>
   </sheetData>
@@ -14448,28 +14448,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>446.3412076415522</v>
+        <v>581.027300332593</v>
       </c>
       <c r="AB2" t="n">
-        <v>610.7037314795198</v>
+        <v>794.9871854304506</v>
       </c>
       <c r="AC2" t="n">
-        <v>552.4190244751841</v>
+        <v>719.1147242244901</v>
       </c>
       <c r="AD2" t="n">
-        <v>446341.2076415522</v>
+        <v>581027.3003325929</v>
       </c>
       <c r="AE2" t="n">
-        <v>610703.7314795197</v>
+        <v>794987.1854304506</v>
       </c>
       <c r="AF2" t="n">
         <v>6.539806348680738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.70833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>552419.024475184</v>
+        <v>719114.7242244901</v>
       </c>
     </row>
     <row r="3">
@@ -14554,28 +14554,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>322.6715043593776</v>
+        <v>438.0483958284224</v>
       </c>
       <c r="AB3" t="n">
-        <v>441.4933875265995</v>
+        <v>599.3571405037588</v>
       </c>
       <c r="AC3" t="n">
-        <v>399.3578782609212</v>
+        <v>542.1553362171094</v>
       </c>
       <c r="AD3" t="n">
-        <v>322671.5043593777</v>
+        <v>438048.3958284224</v>
       </c>
       <c r="AE3" t="n">
-        <v>441493.3875265995</v>
+        <v>599357.1405037588</v>
       </c>
       <c r="AF3" t="n">
         <v>8.306606344662081e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.81712962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>399357.8782609212</v>
+        <v>542155.3362171093</v>
       </c>
     </row>
     <row r="4">
@@ -14660,28 +14660,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>301.134791680639</v>
+        <v>406.9254133762474</v>
       </c>
       <c r="AB4" t="n">
-        <v>412.025907106843</v>
+        <v>556.7733028636123</v>
       </c>
       <c r="AC4" t="n">
-        <v>372.7027328145577</v>
+        <v>503.6356402745468</v>
       </c>
       <c r="AD4" t="n">
-        <v>301134.791680639</v>
+        <v>406925.4133762474</v>
       </c>
       <c r="AE4" t="n">
-        <v>412025.907106843</v>
+        <v>556773.3028636123</v>
       </c>
       <c r="AF4" t="n">
         <v>8.694948451374276e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.84490740740741</v>
       </c>
       <c r="AH4" t="n">
-        <v>372702.7328145577</v>
+        <v>503635.6402745468</v>
       </c>
     </row>
   </sheetData>
@@ -14957,28 +14957,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>556.7258016484772</v>
+        <v>712.5070623358361</v>
       </c>
       <c r="AB2" t="n">
-        <v>761.736802824387</v>
+        <v>974.8835962810102</v>
       </c>
       <c r="AC2" t="n">
-        <v>689.0377114671443</v>
+        <v>881.8420741096708</v>
       </c>
       <c r="AD2" t="n">
-        <v>556725.8016484772</v>
+        <v>712507.062335836</v>
       </c>
       <c r="AE2" t="n">
-        <v>761736.8028243871</v>
+        <v>974883.5962810102</v>
       </c>
       <c r="AF2" t="n">
         <v>5.181927481327162e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.60879629629629</v>
       </c>
       <c r="AH2" t="n">
-        <v>689037.7114671443</v>
+        <v>881842.0741096707</v>
       </c>
     </row>
     <row r="3">
@@ -15063,28 +15063,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>378.9618554096007</v>
+        <v>495.7978009251196</v>
       </c>
       <c r="AB3" t="n">
-        <v>518.5123291885363</v>
+        <v>678.3724242810036</v>
       </c>
       <c r="AC3" t="n">
-        <v>469.0262402274064</v>
+        <v>613.6295122093012</v>
       </c>
       <c r="AD3" t="n">
-        <v>378961.8554096007</v>
+        <v>495797.8009251197</v>
       </c>
       <c r="AE3" t="n">
-        <v>518512.3291885364</v>
+        <v>678372.4242810037</v>
       </c>
       <c r="AF3" t="n">
         <v>6.962768463223337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.51851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>469026.2402274064</v>
+        <v>613629.5122093012</v>
       </c>
     </row>
     <row r="4">
@@ -15169,28 +15169,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>332.5539676559546</v>
+        <v>439.5520991520286</v>
       </c>
       <c r="AB4" t="n">
-        <v>455.0150097924866</v>
+        <v>601.4145737298256</v>
       </c>
       <c r="AC4" t="n">
-        <v>411.589015875468</v>
+        <v>544.0164109037059</v>
       </c>
       <c r="AD4" t="n">
-        <v>332553.9676559546</v>
+        <v>439552.0991520286</v>
       </c>
       <c r="AE4" t="n">
-        <v>455015.0097924866</v>
+        <v>601414.5737298257</v>
       </c>
       <c r="AF4" t="n">
         <v>7.656654064305401e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.38888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>411589.015875468</v>
+        <v>544016.410903706</v>
       </c>
     </row>
     <row r="5">
@@ -15275,28 +15275,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>313.6707852284595</v>
+        <v>420.7362365322379</v>
       </c>
       <c r="AB5" t="n">
-        <v>429.1782065279739</v>
+        <v>575.6698803961544</v>
       </c>
       <c r="AC5" t="n">
-        <v>388.2180408523394</v>
+        <v>520.7287549688963</v>
       </c>
       <c r="AD5" t="n">
-        <v>313670.7852284595</v>
+        <v>420736.2365322378</v>
       </c>
       <c r="AE5" t="n">
-        <v>429178.2065279739</v>
+        <v>575669.8803961545</v>
       </c>
       <c r="AF5" t="n">
         <v>7.88757194786289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.76388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>388218.0408523394</v>
+        <v>520728.7549688963</v>
       </c>
     </row>
   </sheetData>
@@ -15572,28 +15572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>360.9903177250973</v>
+        <v>496.3680382834501</v>
       </c>
       <c r="AB2" t="n">
-        <v>493.9228784803128</v>
+        <v>679.1526481917682</v>
       </c>
       <c r="AC2" t="n">
-        <v>446.7835721832648</v>
+        <v>614.3352726450735</v>
       </c>
       <c r="AD2" t="n">
-        <v>360990.3177250973</v>
+        <v>496368.0382834501</v>
       </c>
       <c r="AE2" t="n">
-        <v>493922.8784803128</v>
+        <v>679152.6481917682</v>
       </c>
       <c r="AF2" t="n">
         <v>1.315070791838182e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>31</v>
+        <v>30.20833333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>446783.5721832648</v>
+        <v>614335.2726450735</v>
       </c>
     </row>
   </sheetData>
@@ -15869,28 +15869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>332.6360553029813</v>
+        <v>445.8518644026704</v>
       </c>
       <c r="AB2" t="n">
-        <v>455.1273257325998</v>
+        <v>610.0341904717817</v>
       </c>
       <c r="AC2" t="n">
-        <v>411.6906125398933</v>
+        <v>551.8133835215177</v>
       </c>
       <c r="AD2" t="n">
-        <v>332636.0553029813</v>
+        <v>445851.8644026704</v>
       </c>
       <c r="AE2" t="n">
-        <v>455127.3257325998</v>
+        <v>610034.1904717817</v>
       </c>
       <c r="AF2" t="n">
         <v>9.283756846322373e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>411690.6125398933</v>
+        <v>551813.3835215177</v>
       </c>
     </row>
     <row r="3">
@@ -15975,28 +15975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>295.4264171716443</v>
+        <v>399.1991184108189</v>
       </c>
       <c r="AB3" t="n">
-        <v>404.2154572679266</v>
+        <v>546.2018452318358</v>
       </c>
       <c r="AC3" t="n">
-        <v>365.6377013462323</v>
+        <v>494.0731077220131</v>
       </c>
       <c r="AD3" t="n">
-        <v>295426.4171716443</v>
+        <v>399199.1184108189</v>
       </c>
       <c r="AE3" t="n">
-        <v>404215.4572679267</v>
+        <v>546201.8452318358</v>
       </c>
       <c r="AF3" t="n">
         <v>1.011278066920145e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.42361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>365637.7013462323</v>
+        <v>494073.1077220131</v>
       </c>
     </row>
   </sheetData>
@@ -16272,28 +16272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>395.2066242652713</v>
+        <v>528.9075647154203</v>
       </c>
       <c r="AB2" t="n">
-        <v>540.739138605487</v>
+        <v>723.6746637985805</v>
       </c>
       <c r="AC2" t="n">
-        <v>489.1317541491261</v>
+        <v>654.6081695694129</v>
       </c>
       <c r="AD2" t="n">
-        <v>395206.6242652714</v>
+        <v>528907.5647154204</v>
       </c>
       <c r="AE2" t="n">
-        <v>540739.1386054871</v>
+        <v>723674.6637985804</v>
       </c>
       <c r="AF2" t="n">
         <v>7.453930018132002e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.87962962962963</v>
       </c>
       <c r="AH2" t="n">
-        <v>489131.7541491261</v>
+        <v>654608.1695694129</v>
       </c>
     </row>
     <row r="3">
@@ -16378,28 +16378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>305.5528830507855</v>
+        <v>401.0692081530838</v>
       </c>
       <c r="AB3" t="n">
-        <v>418.0709346319124</v>
+        <v>548.7605845197394</v>
       </c>
       <c r="AC3" t="n">
-        <v>378.1708313968838</v>
+        <v>496.3876445234923</v>
       </c>
       <c r="AD3" t="n">
-        <v>305552.8830507855</v>
+        <v>401069.2081530838</v>
       </c>
       <c r="AE3" t="n">
-        <v>418070.9346319124</v>
+        <v>548760.5845197394</v>
       </c>
       <c r="AF3" t="n">
         <v>9.157109368827861e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.06481481481481</v>
       </c>
       <c r="AH3" t="n">
-        <v>378170.8313968838</v>
+        <v>496387.6445234923</v>
       </c>
     </row>
     <row r="4">
@@ -16484,28 +16484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>295.3036642682343</v>
+        <v>400.3739262897976</v>
       </c>
       <c r="AB4" t="n">
-        <v>404.0475013300053</v>
+        <v>547.8092692007202</v>
       </c>
       <c r="AC4" t="n">
-        <v>365.4857748872985</v>
+        <v>495.527121403341</v>
       </c>
       <c r="AD4" t="n">
-        <v>295303.6642682343</v>
+        <v>400373.9262897976</v>
       </c>
       <c r="AE4" t="n">
-        <v>404047.5013300053</v>
+        <v>547809.2692007202</v>
       </c>
       <c r="AF4" t="n">
         <v>9.19560212198418e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>20.97222222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>365485.7748872985</v>
+        <v>495527.1214033409</v>
       </c>
     </row>
   </sheetData>
